--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64857.43607582429</v>
+        <v>12762447.23369865</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64857.43607582429</v>
+        <v>12762447.23369865</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227388.4215876095</v>
+        <v>26180880.00099846</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227388.4215876095</v>
+        <v>26180880.00099846</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1490892521.750535</v>
+        <v>29160074.3403224</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18170.45311033595</v>
+        <v>735618.1268556728</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35287.98424567452</v>
+        <v>1284518.892328394</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52341.11654498512</v>
+        <v>1833419.657801117</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68937.56585679302</v>
+        <v>2382209.815733611</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85534.01516860092</v>
+        <v>2930999.973666105</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>102130.4644804088</v>
+        <v>3479790.131598602</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>118714.3836400564</v>
+        <v>4228529.241060205</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135041.3250219262</v>
+        <v>4926129.772744028</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>151380.7965559564</v>
+        <v>5423781.352898749</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>167977.2458677643</v>
+        <v>5972571.510831246</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>184573.4229774239</v>
+        <v>6521332.815336021</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>201169.8722892318</v>
+        <v>7070122.973268514</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>217766.3216010399</v>
+        <v>7618913.131201003</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>235002.7509756922</v>
+        <v>8048857.503856976</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>252039.6142551274</v>
+        <v>8315998.415171469</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>88</v>
@@ -27058,7 +27058,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>75</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>295</v>
